--- a/results/gurobi_cplex_comparison/seed_20_k_35.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_35.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.008999999999999999</v>
+        <v>0.951</v>
       </c>
       <c r="F2">
-        <v>0.031</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.027</v>
+        <v>1.375</v>
       </c>
       <c r="F3">
-        <v>0.063</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.038</v>
+        <v>1.935</v>
       </c>
       <c r="F4">
-        <v>0.058</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.036</v>
+        <v>2.442</v>
       </c>
       <c r="F5">
-        <v>0.067</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.057</v>
+        <v>3.108</v>
       </c>
       <c r="F6">
-        <v>0.093</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.079</v>
+        <v>3.894</v>
       </c>
       <c r="F7">
-        <v>0.1</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.028</v>
+        <v>4.635</v>
       </c>
       <c r="F8">
-        <v>0.076</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.097</v>
+        <v>5.573</v>
       </c>
       <c r="F9">
-        <v>0.104</v>
+        <v>1.181</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.022</v>
+        <v>6.433</v>
       </c>
       <c r="F10">
-        <v>0.082</v>
+        <v>1.392</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.063</v>
+        <v>7.514</v>
       </c>
       <c r="F11">
-        <v>0.075</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07000000000000001</v>
+        <v>8.644</v>
       </c>
       <c r="F12">
-        <v>87.949</v>
+        <v>93.712</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.162</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F13">
-        <v>6.87</v>
+        <v>113.995</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.442</v>
+        <v>11.372</v>
       </c>
       <c r="F14">
-        <v>5.684</v>
+        <v>118.882</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.372</v>
+        <v>12.731</v>
       </c>
       <c r="F15">
-        <v>12.107</v>
+        <v>48.679</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.155</v>
+        <v>14.015</v>
       </c>
       <c r="F16">
-        <v>5.633</v>
+        <v>126.354</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.349</v>
+        <v>15.793</v>
       </c>
       <c r="F17">
-        <v>6.846</v>
+        <v>108.379</v>
       </c>
     </row>
   </sheetData>
